--- a/data/trans_orig/P70A01_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0EFEA40-0D04-4B8A-95CC-78A51D2D9B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB2FC62C-A200-4724-A84D-2E6710556D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93A164E1-4AEF-4E49-8C37-73C0A122B88C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6151DDAA-2075-4738-883B-0CF28535E61F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>75,86%</t>
   </si>
   <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
   </si>
   <si>
     <t>42,15%</t>
   </si>
   <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
   </si>
   <si>
     <t>66,57%</t>
   </si>
   <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>24,14%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
   </si>
   <si>
     <t>57,85%</t>
   </si>
   <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>33,43%</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>80,02%</t>
   </si>
   <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
   </si>
   <si>
     <t>60,44%</t>
   </si>
   <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
   </si>
   <si>
     <t>73,42%</t>
   </si>
   <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
   </si>
   <si>
     <t>39,56%</t>
   </si>
   <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,103 +194,103 @@
     <t>78,79%</t>
   </si>
   <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
   </si>
   <si>
     <t>66,12%</t>
   </si>
   <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
   </si>
   <si>
     <t>33,88%</t>
   </si>
   <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61333B30-5196-4023-A6A2-3E5AFF1219EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFCA039-FDCE-4375-BE59-1C1A26D0155B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A01_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB2FC62C-A200-4724-A84D-2E6710556D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A72159-E037-45A0-8081-BFCDA0001F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6151DDAA-2075-4738-883B-0CF28535E61F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78CEF7ED-026F-436D-81F0-339581441FDA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,19 +74,19 @@
     <t>75,86%</t>
   </si>
   <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
   </si>
   <si>
     <t>42,15%</t>
   </si>
   <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
   </si>
   <si>
     <t>66,57%</t>
@@ -95,7 +95,7 @@
     <t>61,83%</t>
   </si>
   <si>
-    <t>70,75%</t>
+    <t>71,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,25 +104,25 @@
     <t>24,14%</t>
   </si>
   <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
   </si>
   <si>
     <t>57,85%</t>
   </si>
   <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
   </si>
   <si>
     <t>33,43%</t>
   </si>
   <si>
-    <t>29,25%</t>
+    <t>28,98%</t>
   </si>
   <si>
     <t>38,17%</t>
@@ -140,31 +140,31 @@
     <t>77,5%</t>
   </si>
   <si>
-    <t>82,6%</t>
+    <t>82,57%</t>
   </si>
   <si>
     <t>60,44%</t>
   </si>
   <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
   </si>
   <si>
     <t>73,42%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>17,4%</t>
+    <t>17,43%</t>
   </si>
   <si>
     <t>22,5%</t>
@@ -173,19 +173,19 @@
     <t>39,56%</t>
   </si>
   <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,103 +194,103 @@
     <t>78,79%</t>
   </si>
   <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
   </si>
   <si>
     <t>66,12%</t>
   </si>
   <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
   </si>
   <si>
     <t>33,88%</t>
   </si>
   <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFCA039-FDCE-4375-BE59-1C1A26D0155B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249439C1-8F4E-426E-8DA7-FBEE62A875F5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A01_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A72159-E037-45A0-8081-BFCDA0001F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CC63CBC-2FE5-4003-BE1A-9D6711E1C8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78CEF7ED-026F-436D-81F0-339581441FDA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67396CA2-5B67-4883-94AB-AC26D876B088}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,34 +68,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>75,86%</t>
   </si>
   <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
   </si>
   <si>
     <t>42,15%</t>
   </si>
   <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
   </si>
   <si>
     <t>66,57%</t>
   </si>
   <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>24,14%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>57,85%</t>
   </si>
   <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>33,43%</t>
   </si>
   <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>80,02%</t>
   </si>
   <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
   </si>
   <si>
     <t>60,44%</t>
   </si>
   <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
   </si>
   <si>
     <t>73,42%</t>
   </si>
   <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>39,56%</t>
   </si>
   <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,103 +194,103 @@
     <t>78,79%</t>
   </si>
   <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
   </si>
   <si>
     <t>66,12%</t>
   </si>
   <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
   </si>
   <si>
     <t>33,88%</t>
   </si>
   <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249439C1-8F4E-426E-8DA7-FBEE62A875F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB17C1C-BB7A-431F-ADD1-518ABE8A88FF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A01_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CC63CBC-2FE5-4003-BE1A-9D6711E1C8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53915ABD-F14B-4AB7-A334-61A29BC5DF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67396CA2-5B67-4883-94AB-AC26D876B088}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{84B89B37-1CEB-415B-8125-D394A30F8AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB17C1C-BB7A-431F-ADD1-518ABE8A88FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7813F9-C347-4847-9453-6E5800865BBA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1151,7 +1151,7 @@
         <v>175</v>
       </c>
       <c r="I10" s="7">
-        <v>183690</v>
+        <v>183689</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1217,7 +1217,7 @@
         <v>167</v>
       </c>
       <c r="N11" s="7">
-        <v>174254</v>
+        <v>174253</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>47</v>
@@ -1253,7 +1253,7 @@
         <v>266</v>
       </c>
       <c r="I12" s="7">
-        <v>277828</v>
+        <v>277827</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1268,7 @@
         <v>627</v>
       </c>
       <c r="N12" s="7">
-        <v>655640</v>
+        <v>655639</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
